--- a/data/trans_orig/P42C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P42C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE5FDB1C-9028-4679-B390-71CE44CD9753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67126C6F-3601-45DF-A428-38FA5514BEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ECD18DC1-07E7-4E94-BE5A-3273E94991B6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E9978AA1-78F6-4012-96F1-61B998DCED43}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="146">
   <si>
-    <t>Población según el lugar donde tuvo lugar dicha consulta al ginecólogo en 2012 (Tasa respuesta: 38,79%)</t>
+    <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2012 (Tasa respuesta: 38,79%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -79,10 +79,10 @@
     <t>26,95%</t>
   </si>
   <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,10 +91,10 @@
     <t>73,05%</t>
   </si>
   <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>29,74%</t>
   </si>
   <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
   </si>
   <si>
     <t>70,26%</t>
   </si>
   <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -127,19 +127,19 @@
     <t>28,45%</t>
   </si>
   <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
   </si>
   <si>
     <t>71,55%</t>
   </si>
   <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -148,19 +148,19 @@
     <t>26,67%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
   </si>
   <si>
     <t>73,33%</t>
   </si>
   <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -169,19 +169,19 @@
     <t>16,52%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
   </si>
   <si>
     <t>83,48%</t>
   </si>
   <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -190,292 +190,292 @@
     <t>13,48%</t>
   </si>
   <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>23,93%</t>
   </si>
   <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
   </si>
   <si>
     <t>76,07%</t>
   </si>
   <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el lugar donde tuvo lugar dicha consulta al ginecólogo en 2015 (Tasa respuesta: 39,91%)</t>
+    <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2015 (Tasa respuesta: 39,91%)</t>
   </si>
   <si>
     <t>20,94%</t>
   </si>
   <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
   </si>
   <si>
     <t>79,06%</t>
   </si>
   <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
   </si>
   <si>
     <t>21,31%</t>
   </si>
   <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
   </si>
   <si>
     <t>78,69%</t>
   </si>
   <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
   </si>
   <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
   </si>
   <si>
     <t>79,56%</t>
   </si>
   <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
   </si>
   <si>
     <t>85,83%</t>
   </si>
   <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
   </si>
   <si>
     <t>87,52%</t>
   </si>
   <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
   </si>
   <si>
     <t>93,89%</t>
   </si>
   <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>Población según el lugar donde tuvo lugar dicha consulta al ginecólogo en 2023 (Tasa respuesta: 36,36%)</t>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2023 (Tasa respuesta: 36,36%)</t>
   </si>
   <si>
     <t>39,58%</t>
   </si>
   <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
   </si>
   <si>
     <t>60,42%</t>
   </si>
   <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
   </si>
   <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
   </si>
   <si>
     <t>72,22%</t>
   </si>
   <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
   </si>
   <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
   </si>
   <si>
     <t>31,48%</t>
   </si>
   <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
   </si>
   <si>
     <t>68,52%</t>
   </si>
   <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
   </si>
   <si>
     <t>21,03%</t>
   </si>
   <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
   </si>
   <si>
     <t>78,97%</t>
   </si>
   <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
   </si>
   <si>
     <t>14,14%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
   </si>
   <si>
     <t>85,86%</t>
   </si>
   <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
   </si>
   <si>
     <t>23,88%</t>
   </si>
   <si>
-    <t>22,06%</t>
+    <t>22,22%</t>
   </si>
   <si>
     <t>76,12%</t>
   </si>
   <si>
-    <t>77,94%</t>
+    <t>77,78%</t>
   </si>
 </sst>
 </file>
@@ -887,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EACC390-EF00-42F8-9A05-E965431325DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE0882B-9F69-4672-911F-92183CC5F00A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2064,7 +2064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4425E4F-1C38-48C3-A720-FB976909CD7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E4DE30-B492-4FD6-9EB9-DF02C370FF18}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3241,7 +3241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31627392-B619-4460-B78E-E964E72E94E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F63CF9-2D17-4979-9626-46C476C8194E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4278,7 +4278,7 @@
         <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>711</v>
@@ -4293,7 +4293,7 @@
         <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,7 +4324,7 @@
         <v>144</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>145</v>
@@ -4339,7 +4339,7 @@
         <v>144</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>145</v>

--- a/data/trans_orig/P42C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P42C-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67126C6F-3601-45DF-A428-38FA5514BEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41AE6E8C-C7F8-41EE-AF95-222DDBE207E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E9978AA1-78F6-4012-96F1-61B998DCED43}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E82E734-259C-455F-8BE7-0A62695C4783}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -79,10 +79,10 @@
     <t>26,95%</t>
   </si>
   <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,10 +91,10 @@
     <t>73,05%</t>
   </si>
   <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>29,74%</t>
   </si>
   <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
   </si>
   <si>
     <t>70,26%</t>
   </si>
   <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -127,19 +127,19 @@
     <t>28,45%</t>
   </si>
   <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
   </si>
   <si>
     <t>71,55%</t>
   </si>
   <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -148,19 +148,19 @@
     <t>26,67%</t>
   </si>
   <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
   </si>
   <si>
     <t>73,33%</t>
   </si>
   <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
+    <t>68,97%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -169,19 +169,19 @@
     <t>16,52%</t>
   </si>
   <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
   </si>
   <si>
     <t>83,48%</t>
   </si>
   <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -190,169 +190,169 @@
     <t>13,48%</t>
   </si>
   <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
   </si>
   <si>
     <t>23,93%</t>
   </si>
   <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
   </si>
   <si>
     <t>76,07%</t>
   </si>
   <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2015 (Tasa respuesta: 39,91%)</t>
+    <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2016 (Tasa respuesta: 39,91%)</t>
   </si>
   <si>
     <t>20,94%</t>
   </si>
   <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
   </si>
   <si>
     <t>79,06%</t>
   </si>
   <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
   </si>
   <si>
     <t>21,31%</t>
   </si>
   <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
   </si>
   <si>
     <t>78,69%</t>
   </si>
   <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
   </si>
   <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
   </si>
   <si>
     <t>79,56%</t>
   </si>
   <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>10,93%</t>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
   </si>
   <si>
     <t>16,88%</t>
   </si>
   <si>
-    <t>85,83%</t>
+    <t>84,53%</t>
   </si>
   <si>
     <t>83,12%</t>
   </si>
   <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
+    <t>85,73%</t>
   </si>
   <si>
     <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2023 (Tasa respuesta: 36,36%)</t>
@@ -887,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE0882B-9F69-4672-911F-92183CC5F00A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C698153E-12C2-460C-A26A-FECD27514C38}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2064,7 +2064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E4DE30-B492-4FD6-9EB9-DF02C370FF18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F70B41A-E5D3-40EB-975F-4B57E731FFB3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3241,7 +3241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F63CF9-2D17-4979-9626-46C476C8194E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805B686F-8E26-4715-A4D0-61EC100D2E96}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P42C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P42C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41AE6E8C-C7F8-41EE-AF95-222DDBE207E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D4DD701-2D60-443B-BF00-82190948D0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4E82E734-259C-455F-8BE7-0A62695C4783}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{396D629A-1B9B-4EAE-B3BB-C00E9B9AB04F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -82,7 +82,7 @@
     <t>21,24%</t>
   </si>
   <si>
-    <t>32,92%</t>
+    <t>32,61%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,7 +91,7 @@
     <t>73,05%</t>
   </si>
   <si>
-    <t>67,08%</t>
+    <t>67,39%</t>
   </si>
   <si>
     <t>78,76%</t>
@@ -106,19 +106,19 @@
     <t>29,74%</t>
   </si>
   <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
   </si>
   <si>
     <t>70,26%</t>
   </si>
   <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -127,19 +127,19 @@
     <t>28,45%</t>
   </si>
   <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
   </si>
   <si>
     <t>71,55%</t>
   </si>
   <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -148,19 +148,19 @@
     <t>26,67%</t>
   </si>
   <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
   </si>
   <si>
     <t>73,33%</t>
   </si>
   <si>
-    <t>68,97%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -169,19 +169,19 @@
     <t>16,52%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
   </si>
   <si>
     <t>83,48%</t>
   </si>
   <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -190,37 +190,37 @@
     <t>13,48%</t>
   </si>
   <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
   </si>
   <si>
     <t>23,93%</t>
   </si>
   <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
   </si>
   <si>
     <t>76,07%</t>
   </si>
   <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -232,127 +232,127 @@
     <t>20,94%</t>
   </si>
   <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
   </si>
   <si>
     <t>79,06%</t>
   </si>
   <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
   </si>
   <si>
     <t>21,31%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>78,69%</t>
   </si>
   <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
   </si>
   <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
   </si>
   <si>
     <t>79,56%</t>
   </si>
   <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
   </si>
   <si>
     <t>85,83%</t>
   </si>
   <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
   </si>
   <si>
     <t>87,52%</t>
   </si>
   <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
   </si>
   <si>
     <t>93,89%</t>
   </si>
   <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
   </si>
   <si>
     <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2023 (Tasa respuesta: 36,36%)</t>
@@ -361,121 +361,121 @@
     <t>39,58%</t>
   </si>
   <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
   </si>
   <si>
     <t>60,42%</t>
   </si>
   <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
   </si>
   <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
   </si>
   <si>
     <t>72,22%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
   </si>
   <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
   </si>
   <si>
     <t>31,48%</t>
   </si>
   <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
   </si>
   <si>
     <t>68,52%</t>
   </si>
   <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
   </si>
   <si>
     <t>21,03%</t>
   </si>
   <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
   </si>
   <si>
     <t>78,97%</t>
   </si>
   <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
   </si>
   <si>
     <t>14,14%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
   </si>
   <si>
     <t>85,86%</t>
   </si>
   <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
   </si>
   <si>
     <t>23,88%</t>
   </si>
   <si>
-    <t>22,22%</t>
+    <t>22,06%</t>
   </si>
   <si>
     <t>76,12%</t>
   </si>
   <si>
-    <t>77,78%</t>
+    <t>77,94%</t>
   </si>
 </sst>
 </file>
@@ -887,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C698153E-12C2-460C-A26A-FECD27514C38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0E4D3E-A8EA-4FFD-8F4D-F8A1A4C31310}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2064,7 +2064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F70B41A-E5D3-40EB-975F-4B57E731FFB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EAFD78-939A-4D50-ABF8-3176917EB476}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3241,7 +3241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805B686F-8E26-4715-A4D0-61EC100D2E96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48326A9D-861A-47AA-AF09-1A4D3FF74067}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4278,7 +4278,7 @@
         <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="M22" s="7">
         <v>711</v>
@@ -4293,7 +4293,7 @@
         <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4324,7 +4324,7 @@
         <v>144</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>145</v>
@@ -4339,7 +4339,7 @@
         <v>144</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>145</v>

--- a/data/trans_orig/P42C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P42C-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D4DD701-2D60-443B-BF00-82190948D0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87C1E131-5C96-4DA7-83F7-CBAB2FC4FD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{396D629A-1B9B-4EAE-B3BB-C00E9B9AB04F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AEE7A286-8505-41B3-9D67-EC27B2F9FC50}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="167">
   <si>
     <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2012 (Tasa respuesta: 38,79%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Servicio sanitario privado</t>
@@ -100,7 +100,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>29,74%</t>
@@ -121,7 +121,7 @@
     <t>74,31%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>28,45%</t>
@@ -142,7 +142,7 @@
     <t>75,1%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>26,67%</t>
@@ -163,7 +163,7 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>16,52%</t>
@@ -184,25 +184,46 @@
     <t>87,37%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>23,93%</t>
@@ -319,22 +340,40 @@
     <t>90,64%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>15,47%</t>
@@ -358,124 +397,148 @@
     <t>Población según el lugar donde tuvo lugar dicha consulta ginecológica en 2023 (Tasa respuesta: 36,36%)</t>
   </si>
   <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
   </si>
 </sst>
 </file>
@@ -887,8 +950,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0E4D3E-A8EA-4FFD-8F4D-F8A1A4C31310}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191F8108-B3FF-4F9E-8170-664679648208}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1763,10 +1826,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="I19" s="7">
-        <v>63550</v>
+        <v>38812</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>49</v>
@@ -1778,10 +1841,10 @@
         <v>51</v>
       </c>
       <c r="M19" s="7">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="N19" s="7">
-        <v>63550</v>
+        <v>38812</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>49</v>
@@ -1812,10 +1875,10 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>386</v>
+        <v>214</v>
       </c>
       <c r="I20" s="7">
-        <v>407886</v>
+        <v>218724</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>52</v>
@@ -1827,10 +1890,10 @@
         <v>54</v>
       </c>
       <c r="M20" s="7">
-        <v>386</v>
+        <v>214</v>
       </c>
       <c r="N20" s="7">
-        <v>407886</v>
+        <v>218724</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>52</v>
@@ -1861,10 +1924,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>443</v>
+        <v>250</v>
       </c>
       <c r="I21" s="7">
-        <v>471436</v>
+        <v>257536</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -1876,10 +1939,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>443</v>
+        <v>250</v>
       </c>
       <c r="N21" s="7">
-        <v>471436</v>
+        <v>257536</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -1893,7 +1956,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1912,34 +1975,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>588</v>
+        <v>21</v>
       </c>
       <c r="I22" s="7">
-        <v>655675</v>
+        <v>24738</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22" s="7">
+        <v>21</v>
+      </c>
+      <c r="N22" s="7">
+        <v>24738</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M22" s="7">
-        <v>588</v>
-      </c>
-      <c r="N22" s="7">
-        <v>655675</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1961,34 +2024,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>1936</v>
+        <v>172</v>
       </c>
       <c r="I23" s="7">
-        <v>2084359</v>
+        <v>189162</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="7">
+        <v>172</v>
+      </c>
+      <c r="N23" s="7">
+        <v>189162</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M23" s="7">
-        <v>1936</v>
-      </c>
-      <c r="N23" s="7">
-        <v>2084359</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,48 +2073,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>193</v>
+      </c>
+      <c r="I24" s="7">
+        <v>213900</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>193</v>
+      </c>
+      <c r="N24" s="7">
+        <v>213900</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>588</v>
+      </c>
+      <c r="I25" s="7">
+        <v>655675</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="7">
+        <v>588</v>
+      </c>
+      <c r="N25" s="7">
+        <v>655675</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1936</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2084359</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1936</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2084359</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>2524</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2740034</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>2524</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2740034</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2064,8 +2277,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46EAFD78-939A-4D50-ABF8-3176917EB476}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9715264E-5A56-4D17-BF34-E6762F863B7B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2081,7 +2294,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2201,13 +2414,13 @@
         <v>45199</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -2216,13 +2429,13 @@
         <v>45199</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2463,13 @@
         <v>170654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M5" s="7">
         <v>173</v>
@@ -2265,13 +2478,13 @@
         <v>170654</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,13 +2563,13 @@
         <v>98683</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M7" s="7">
         <v>99</v>
@@ -2365,13 +2578,13 @@
         <v>98683</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2612,13 @@
         <v>364346</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="M8" s="7">
         <v>377</v>
@@ -2414,13 +2627,13 @@
         <v>364346</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,13 +2712,13 @@
         <v>119213</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M10" s="7">
         <v>115</v>
@@ -2514,13 +2727,13 @@
         <v>119213</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2761,13 @@
         <v>463986</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="M11" s="7">
         <v>472</v>
@@ -2563,13 +2776,13 @@
         <v>463986</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2861,13 @@
         <v>81492</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -2663,13 +2876,13 @@
         <v>81492</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2910,13 @@
         <v>493781</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>459</v>
@@ -2712,13 +2925,13 @@
         <v>493781</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,13 +3010,13 @@
         <v>53981</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -2812,13 +3025,13 @@
         <v>53981</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,13 +3059,13 @@
         <v>378407</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>332</v>
@@ -2861,13 +3074,13 @@
         <v>378407</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,34 +3153,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I19" s="7">
-        <v>30964</v>
+        <v>26331</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N19" s="7">
-        <v>30964</v>
+        <v>26331</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,34 +3202,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>405</v>
+        <v>240</v>
       </c>
       <c r="I20" s="7">
-        <v>476048</v>
+        <v>255699</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
-        <v>405</v>
+        <v>240</v>
       </c>
       <c r="N20" s="7">
-        <v>476048</v>
+        <v>255699</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,10 +3251,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>432</v>
+        <v>264</v>
       </c>
       <c r="I21" s="7">
-        <v>507012</v>
+        <v>282030</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3053,10 +3266,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>432</v>
+        <v>264</v>
       </c>
       <c r="N21" s="7">
-        <v>507012</v>
+        <v>282030</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3070,7 +3283,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3089,34 +3302,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>404</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>429531</v>
+        <v>4633</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>404</v>
+        <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>429531</v>
+        <v>4633</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,34 +3351,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>2218</v>
+        <v>165</v>
       </c>
       <c r="I23" s="7">
-        <v>2347223</v>
+        <v>220349</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M23" s="7">
-        <v>2218</v>
+        <v>165</v>
       </c>
       <c r="N23" s="7">
-        <v>2347223</v>
+        <v>220349</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,48 +3400,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>168</v>
+      </c>
+      <c r="I24" s="7">
+        <v>224982</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>168</v>
+      </c>
+      <c r="N24" s="7">
+        <v>224982</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>404</v>
+      </c>
+      <c r="I25" s="7">
+        <v>429531</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M25" s="7">
+        <v>404</v>
+      </c>
+      <c r="N25" s="7">
+        <v>429531</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2218</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2347223</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2218</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2347223</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>2622</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2776754</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>2622</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2776754</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3241,8 +3604,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48326A9D-861A-47AA-AF09-1A4D3FF74067}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866D61F0-C97A-43BF-AA12-E2073364213F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3258,7 +3621,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3375,31 +3738,31 @@
         <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>40998</v>
+        <v>36458</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>40998</v>
+        <v>36458</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,31 +3787,31 @@
         <v>40</v>
       </c>
       <c r="I5" s="7">
-        <v>62577</v>
+        <v>56171</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
       </c>
       <c r="N5" s="7">
-        <v>62577</v>
+        <v>56171</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,7 +3836,7 @@
         <v>60</v>
       </c>
       <c r="I6" s="7">
-        <v>103575</v>
+        <v>92629</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3488,7 +3851,7 @@
         <v>60</v>
       </c>
       <c r="N6" s="7">
-        <v>103575</v>
+        <v>92629</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3524,31 +3887,31 @@
         <v>63</v>
       </c>
       <c r="I7" s="7">
-        <v>69385</v>
+        <v>64391</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
       </c>
       <c r="N7" s="7">
-        <v>69385</v>
+        <v>64391</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,31 +3936,31 @@
         <v>158</v>
       </c>
       <c r="I8" s="7">
-        <v>180414</v>
+        <v>222929</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="M8" s="7">
         <v>158</v>
       </c>
       <c r="N8" s="7">
-        <v>180414</v>
+        <v>222929</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,7 +3985,7 @@
         <v>221</v>
       </c>
       <c r="I9" s="7">
-        <v>249799</v>
+        <v>287320</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3637,7 +4000,7 @@
         <v>221</v>
       </c>
       <c r="N9" s="7">
-        <v>249799</v>
+        <v>287320</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3673,31 +4036,31 @@
         <v>120</v>
       </c>
       <c r="I10" s="7">
-        <v>84321</v>
+        <v>79297</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="M10" s="7">
         <v>120</v>
       </c>
       <c r="N10" s="7">
-        <v>84321</v>
+        <v>79297</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,31 +4085,31 @@
         <v>352</v>
       </c>
       <c r="I11" s="7">
-        <v>245071</v>
+        <v>226815</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="M11" s="7">
         <v>352</v>
       </c>
       <c r="N11" s="7">
-        <v>245071</v>
+        <v>226815</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,7 +4134,7 @@
         <v>472</v>
       </c>
       <c r="I12" s="7">
-        <v>329392</v>
+        <v>306112</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3786,7 +4149,7 @@
         <v>472</v>
       </c>
       <c r="N12" s="7">
-        <v>329392</v>
+        <v>306112</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3822,31 +4185,31 @@
         <v>226</v>
       </c>
       <c r="I13" s="7">
-        <v>146471</v>
+        <v>136657</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M13" s="7">
         <v>226</v>
       </c>
       <c r="N13" s="7">
-        <v>146471</v>
+        <v>136657</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,31 +4234,31 @@
         <v>472</v>
       </c>
       <c r="I14" s="7">
-        <v>318746</v>
+        <v>315761</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>472</v>
       </c>
       <c r="N14" s="7">
-        <v>318746</v>
+        <v>315761</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,7 +4283,7 @@
         <v>698</v>
       </c>
       <c r="I15" s="7">
-        <v>465217</v>
+        <v>452418</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3935,7 +4298,7 @@
         <v>698</v>
       </c>
       <c r="N15" s="7">
-        <v>465217</v>
+        <v>452418</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3971,31 +4334,31 @@
         <v>133</v>
       </c>
       <c r="I16" s="7">
-        <v>81904</v>
+        <v>75860</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="M16" s="7">
         <v>133</v>
       </c>
       <c r="N16" s="7">
-        <v>81904</v>
+        <v>75860</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,31 +4383,31 @@
         <v>525</v>
       </c>
       <c r="I17" s="7">
-        <v>307601</v>
+        <v>281860</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="M17" s="7">
         <v>525</v>
       </c>
       <c r="N17" s="7">
-        <v>307601</v>
+        <v>281860</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,7 +4432,7 @@
         <v>658</v>
       </c>
       <c r="I18" s="7">
-        <v>389505</v>
+        <v>357720</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4084,7 +4447,7 @@
         <v>658</v>
       </c>
       <c r="N18" s="7">
-        <v>389505</v>
+        <v>357720</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4117,34 +4480,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
+        <v>91</v>
+      </c>
+      <c r="I19" s="7">
+        <v>45670</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="I19" s="7">
-        <v>81261</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M19" s="7">
+        <v>91</v>
+      </c>
+      <c r="N19" s="7">
+        <v>45670</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="N19" s="7">
-        <v>81261</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,34 +4529,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>921</v>
+        <v>468</v>
       </c>
       <c r="I20" s="7">
-        <v>493447</v>
+        <v>225115</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="M20" s="7">
-        <v>921</v>
+        <v>468</v>
       </c>
       <c r="N20" s="7">
-        <v>493447</v>
+        <v>225115</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,10 +4578,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>1070</v>
+        <v>559</v>
       </c>
       <c r="I21" s="7">
-        <v>574708</v>
+        <v>270785</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -4230,10 +4593,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1070</v>
+        <v>559</v>
       </c>
       <c r="N21" s="7">
-        <v>574708</v>
+        <v>270785</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4247,7 +4610,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4266,34 +4629,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>711</v>
+        <v>58</v>
       </c>
       <c r="I22" s="7">
-        <v>504342</v>
+        <v>29003</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
-        <v>711</v>
+        <v>58</v>
       </c>
       <c r="N22" s="7">
-        <v>504342</v>
+        <v>29003</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,34 +4678,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>2468</v>
+        <v>453</v>
       </c>
       <c r="I23" s="7">
-        <v>1607853</v>
+        <v>218818</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
-        <v>2468</v>
+        <v>453</v>
       </c>
       <c r="N23" s="7">
-        <v>1607853</v>
+        <v>218818</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,48 +4727,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>511</v>
+      </c>
+      <c r="I24" s="7">
+        <v>247821</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>511</v>
+      </c>
+      <c r="N24" s="7">
+        <v>247821</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>711</v>
+      </c>
+      <c r="I25" s="7">
+        <v>467337</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M25" s="7">
+        <v>711</v>
+      </c>
+      <c r="N25" s="7">
+        <v>467337</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2468</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1547468</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2468</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1547468</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>3179</v>
       </c>
-      <c r="I24" s="7">
-        <v>2112195</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>2014805</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>3179</v>
       </c>
-      <c r="N24" s="7">
-        <v>2112195</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="N27" s="7">
+        <v>2014805</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
